--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H2">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I2">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J2">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>99.87465830599912</v>
+        <v>92.75265179018987</v>
       </c>
       <c r="R2">
-        <v>898.8719247539921</v>
+        <v>834.7738661117089</v>
       </c>
       <c r="S2">
-        <v>0.0009578572412300817</v>
+        <v>0.000621355313535498</v>
       </c>
       <c r="T2">
-        <v>0.001016698472856658</v>
+        <v>0.0006512449258435446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H3">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I3">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J3">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>4701.929388641926</v>
+        <v>5928.657820397802</v>
       </c>
       <c r="R3">
-        <v>42317.36449777734</v>
+        <v>53357.92038358023</v>
       </c>
       <c r="S3">
-        <v>0.04509429307747303</v>
+        <v>0.03971641745802444</v>
       </c>
       <c r="T3">
-        <v>0.04786443838701918</v>
+        <v>0.04162693193215078</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H4">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I4">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J4">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>2969.394718570074</v>
+        <v>4373.731187113211</v>
       </c>
       <c r="R4">
-        <v>26724.55246713066</v>
+        <v>39363.5806840189</v>
       </c>
       <c r="S4">
-        <v>0.02847825746285293</v>
+        <v>0.02929987510476925</v>
       </c>
       <c r="T4">
-        <v>0.0302276786412543</v>
+        <v>0.03070931329331981</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H5">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I5">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J5">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>1049.151820664547</v>
+        <v>932.1300356857771</v>
       </c>
       <c r="R5">
-        <v>6294.910923987285</v>
+        <v>5592.780214114663</v>
       </c>
       <c r="S5">
-        <v>0.01006198855263465</v>
+        <v>0.006244392363999767</v>
       </c>
       <c r="T5">
-        <v>0.007120064768891475</v>
+        <v>0.004363181316115783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.30602766666667</v>
+        <v>31.90834366666667</v>
       </c>
       <c r="H6">
-        <v>75.91808300000001</v>
+        <v>95.725031</v>
       </c>
       <c r="I6">
-        <v>0.118513131303191</v>
+        <v>0.1125536485145784</v>
       </c>
       <c r="J6">
-        <v>0.1222333681589158</v>
+        <v>0.1157863270269485</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>3536.875505755548</v>
+        <v>5474.144726459132</v>
       </c>
       <c r="R6">
-        <v>31831.87955179994</v>
+        <v>49267.30253813219</v>
       </c>
       <c r="S6">
-        <v>0.03392073496900028</v>
+        <v>0.03667160827424947</v>
       </c>
       <c r="T6">
-        <v>0.03600448788889415</v>
+        <v>0.03843565555951863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>196.709926</v>
       </c>
       <c r="I7">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J7">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>258.7833605420249</v>
+        <v>190.6018423744571</v>
       </c>
       <c r="R7">
-        <v>2329.050244878224</v>
+        <v>1715.416581370114</v>
       </c>
       <c r="S7">
-        <v>0.002481885996000893</v>
+        <v>0.00127685263163064</v>
       </c>
       <c r="T7">
-        <v>0.002634348411562845</v>
+        <v>0.001338274219734221</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>196.709926</v>
       </c>
       <c r="I8">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J8">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>12183.08136280231</v>
@@ -948,10 +948,10 @@
         <v>109647.7322652208</v>
       </c>
       <c r="S8">
-        <v>0.1168429800090188</v>
+        <v>0.08161515809958939</v>
       </c>
       <c r="T8">
-        <v>0.1240206517483075</v>
+        <v>0.0855411652985562</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>196.709926</v>
       </c>
       <c r="I9">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J9">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>7693.9431591642</v>
+        <v>8987.788556171185</v>
       </c>
       <c r="R9">
-        <v>69245.4884324778</v>
+        <v>80890.09700554067</v>
       </c>
       <c r="S9">
-        <v>0.07378948067124859</v>
+        <v>0.06020970903282759</v>
       </c>
       <c r="T9">
-        <v>0.07832237319102107</v>
+        <v>0.06310603070412958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>196.709926</v>
       </c>
       <c r="I10">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J10">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>2718.437674535175</v>
+        <v>1915.478411724166</v>
       </c>
       <c r="R10">
-        <v>16310.62604721105</v>
+        <v>11492.870470345</v>
       </c>
       <c r="S10">
-        <v>0.02607143048648383</v>
+        <v>0.01283189931625469</v>
       </c>
       <c r="T10">
-        <v>0.01844866675313507</v>
+        <v>0.00896610912372249</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>196.709926</v>
       </c>
       <c r="I11">
-        <v>0.307077159583692</v>
+        <v>0.2312918537506949</v>
       </c>
       <c r="J11">
-        <v>0.3167165957716697</v>
+        <v>0.2379348388122522</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>9164.332020980908</v>
+        <v>11249.0807556392</v>
       </c>
       <c r="R11">
-        <v>82478.98818882818</v>
+        <v>101241.7268007528</v>
       </c>
       <c r="S11">
-        <v>0.08789138242093991</v>
+        <v>0.07535823467039254</v>
       </c>
       <c r="T11">
-        <v>0.0932905556676433</v>
+        <v>0.07898325946610975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H12">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I12">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J12">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>208.5562185171235</v>
+        <v>248.7661621920203</v>
       </c>
       <c r="R12">
-        <v>1877.005966654112</v>
+        <v>2238.895459728183</v>
       </c>
       <c r="S12">
-        <v>0.002000177897962237</v>
+        <v>0.001666498733162839</v>
       </c>
       <c r="T12">
-        <v>0.002123048954234896</v>
+        <v>0.001746663817392447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H13">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I13">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J13">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>9818.472770392333</v>
+        <v>15900.88719259732</v>
       </c>
       <c r="R13">
-        <v>88366.254933531</v>
+        <v>143107.9847333759</v>
       </c>
       <c r="S13">
-        <v>0.09416498039098441</v>
+        <v>0.1065209517610135</v>
       </c>
       <c r="T13">
-        <v>0.09994954116246481</v>
+        <v>0.1116450247052113</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H14">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I14">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J14">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>6200.629311714947</v>
+        <v>11730.51444759642</v>
       </c>
       <c r="R14">
-        <v>55805.66380543452</v>
+        <v>105574.6300283678</v>
       </c>
       <c r="S14">
-        <v>0.05946771470509156</v>
+        <v>0.07858338647833547</v>
       </c>
       <c r="T14">
-        <v>0.0631208202250455</v>
+        <v>0.08236355364601618</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H15">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I15">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J15">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>2190.81737128717</v>
+        <v>2500.008432815363</v>
       </c>
       <c r="R15">
-        <v>13144.90422772302</v>
+        <v>15000.05059689218</v>
       </c>
       <c r="S15">
-        <v>0.02101123867548711</v>
+        <v>0.01674769932321953</v>
       </c>
       <c r="T15">
-        <v>0.01486797360795384</v>
+        <v>0.01170221928978695</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>52.84352933333333</v>
+        <v>85.57939900000001</v>
       </c>
       <c r="H16">
-        <v>158.530588</v>
+        <v>256.738197</v>
       </c>
       <c r="I16">
-        <v>0.2474766965759141</v>
+        <v>0.3018731932863474</v>
       </c>
       <c r="J16">
-        <v>0.2552452190797993</v>
+        <v>0.3105433607867011</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>7385.631083574967</v>
+        <v>14681.86567824852</v>
       </c>
       <c r="R16">
-        <v>66470.67975217472</v>
+        <v>132136.7911042367</v>
       </c>
       <c r="S16">
-        <v>0.07083258490638884</v>
+        <v>0.09835465699061607</v>
       </c>
       <c r="T16">
-        <v>0.07518383513010025</v>
+        <v>0.1030858993282942</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H17">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I17">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J17">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>76.94685965304799</v>
+        <v>69.02290776187482</v>
       </c>
       <c r="R17">
-        <v>461.681157918288</v>
+        <v>414.1374465712489</v>
       </c>
       <c r="S17">
-        <v>0.0007379660462293636</v>
+        <v>0.0004623884025496679</v>
       </c>
       <c r="T17">
-        <v>0.0005221995651167794</v>
+        <v>0.000323087391244752</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H18">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I18">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J18">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>3622.527545054341</v>
+        <v>4411.876037945433</v>
       </c>
       <c r="R18">
-        <v>21735.16527032605</v>
+        <v>26471.2562276726</v>
       </c>
       <c r="S18">
-        <v>0.03474218885389977</v>
+        <v>0.02955540963980588</v>
       </c>
       <c r="T18">
-        <v>0.02458426915900782</v>
+        <v>0.02065142669029023</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H19">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I19">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J19">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>2287.723457979421</v>
+        <v>3254.760251881877</v>
       </c>
       <c r="R19">
-        <v>13726.34074787653</v>
+        <v>19528.56151129126</v>
       </c>
       <c r="S19">
-        <v>0.02194062555331803</v>
+        <v>0.0218038248800218</v>
       </c>
       <c r="T19">
-        <v>0.01552562639009513</v>
+        <v>0.01523511589131383</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H20">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I20">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J20">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>808.302519064194</v>
+        <v>693.6548360983608</v>
       </c>
       <c r="R20">
-        <v>3233.210076256776</v>
+        <v>2774.619344393443</v>
       </c>
       <c r="S20">
-        <v>0.007752100824395497</v>
+        <v>0.004646833377273828</v>
       </c>
       <c r="T20">
-        <v>0.003657027944058528</v>
+        <v>0.00216460629942836</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.496631</v>
+        <v>23.7449455</v>
       </c>
       <c r="H21">
-        <v>38.993262</v>
+        <v>47.489891</v>
       </c>
       <c r="I21">
-        <v>0.09130657802593078</v>
+        <v>0.08375803763818537</v>
       </c>
       <c r="J21">
-        <v>0.06278185066610624</v>
+        <v>0.05744244731349463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>2724.930105070789</v>
+        <v>4073.645111346618</v>
       </c>
       <c r="R21">
-        <v>16349.58063042473</v>
+        <v>24441.87066807971</v>
       </c>
       <c r="S21">
-        <v>0.02613369674808813</v>
+        <v>0.0272895813385342</v>
       </c>
       <c r="T21">
-        <v>0.01849272760782798</v>
+        <v>0.01906821104121746</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H22">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I22">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J22">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>198.5696384518747</v>
+        <v>222.9314704475401</v>
       </c>
       <c r="R22">
-        <v>1787.126746066872</v>
+        <v>2006.383234027861</v>
       </c>
       <c r="S22">
-        <v>0.00190440066885458</v>
+        <v>0.001493430657165444</v>
       </c>
       <c r="T22">
-        <v>0.002021388123813919</v>
+        <v>0.001565270492408241</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H23">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I23">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J23">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>9348.321531857393</v>
+        <v>14249.55923277851</v>
       </c>
       <c r="R23">
-        <v>84134.89378671654</v>
+        <v>128246.0330950066</v>
       </c>
       <c r="S23">
-        <v>0.08965595101414064</v>
+        <v>0.0954586114136545</v>
       </c>
       <c r="T23">
-        <v>0.09516352182244743</v>
+        <v>0.100050542671768</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H24">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I24">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J24">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>5903.716174736074</v>
+        <v>10512.28515914561</v>
       </c>
       <c r="R24">
-        <v>53133.44557262467</v>
+        <v>94610.56643231047</v>
       </c>
       <c r="S24">
-        <v>0.05662014152591534</v>
+        <v>0.07042239887449055</v>
       </c>
       <c r="T24">
-        <v>0.06009832044324283</v>
+        <v>0.07380999073104733</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H25">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I25">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J25">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>2085.911493906674</v>
+        <v>2240.379282888888</v>
       </c>
       <c r="R25">
-        <v>12515.46896344004</v>
+        <v>13442.27569733333</v>
       </c>
       <c r="S25">
-        <v>0.02000512905768361</v>
+        <v>0.01500842881459367</v>
       </c>
       <c r="T25">
-        <v>0.01415603027727993</v>
+        <v>0.01048692849053188</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>50.313151</v>
+        <v>76.69186633333334</v>
       </c>
       <c r="H26">
-        <v>150.939453</v>
+        <v>230.075599</v>
       </c>
       <c r="I26">
-        <v>0.2356264345112721</v>
+        <v>0.270523266810194</v>
       </c>
       <c r="J26">
-        <v>0.2430229663235089</v>
+        <v>0.2782930260606035</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>7031.974900734001</v>
+        <v>13157.13469920711</v>
       </c>
       <c r="R26">
-        <v>63287.77410660602</v>
+        <v>118414.212292864</v>
       </c>
       <c r="S26">
-        <v>0.06744081224467791</v>
+        <v>0.08814039705028984</v>
       </c>
       <c r="T26">
-        <v>0.07158370565672485</v>
+        <v>0.09238029367484801</v>
       </c>
     </row>
   </sheetData>
